--- a/pred_ohlcv/54_21/2020-01-25 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 XSR ohlcv.xlsx
@@ -912,7 +912,7 @@
         <v>-17844435.5828</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-18679030.9513</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-19326578.1788</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-19297747.6916</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-19297747.6916</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-19297747.6916</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-19646369.9007</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-19586435.27260467</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-20462647.56300467</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-17518504.35506696</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-16998117.84236696</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-16976829.36826696</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-17574721.42346696</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-18168253.26646696</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-18163253.26646696</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-18163133.26646696</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-19013216.20056695</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-19647408.41966695</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-19998958.43966695</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-20668563.15216695</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-20881545.57456695</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-20507472.75006695</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-20509478.79316695</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-21090048.27586695</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-21578106.23846695</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-22644515.26060446</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-22134890.45860445</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-22130650.73860446</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-22130650.73860446</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-22992651.86900445</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-22992312.07220446</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-22673583.76480446</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-23496854.36980446</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-23821082.36890446</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-23821082.36890446</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-23168519.02590446</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-23168519.02590446</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-22423291.25290446</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-22422650.60100446</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-22417650.60100446</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-28095646.15260446</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-28095849.39360446</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-28878227.37620446</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-28870548.93350445</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-29231514.42890446</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-30028746.45690446</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-30029425.80480446</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-30589809.25990446</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-30573078.91730446</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-30686126.33780446</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-31036242.67620445</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-31420321.35970445</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-31420321.35970445</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-32298744.72780446</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-32304572.98780446</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-32379488.50720446</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-32389480.56120446</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-32427572.45150446</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-31711469.62110446</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-31711469.62110446</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-31220935.43660446</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-31145492.29870446</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-31145492.29870446</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-31145492.29870446</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-31135492.29870446</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-31784127.89770446</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-32420499.47660445</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-31508841.23360445</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-31518401.51730445</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-30666418.20940445</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-29909173.95020445</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-29909203.30920445</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-30740514.21520445</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-30852329.45770445</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-31440500.09310445</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-31460500.09310445</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-31091342.67450445</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-30694220.52120445</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-30694220.52120445</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-30694109.79610445</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-31312359.27820445</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-30556347.92000445</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-30266812.52290445</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-30266573.39690445</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-31261608.73000445</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-30954889.34710445</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-30954889.34710445</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-31321273.73060445</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-31003041.46570445</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-31135044.82730445</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-31595919.32770445</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-32205360.30010445</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-31623038.90170445</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-31214426.14470445</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-31269492.54890445</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-31290277.16980445</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-30722900.38710445</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-30704149.84770445</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-30723895.23760445</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-30049018.87870445</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-29540502.74200445</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-29466654.97810445</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-28904064.45260445</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-28685860.08660445</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-28685860.08660445</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-28685860.08660445</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-28685550.08660445</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-28684441.46150445</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-29199121.97530445</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-28775637.25830445</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-28481389.01970445</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-28267243.40350445</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-28267243.40350445</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-28267243.40350445</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-27887347.67970445</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-26845655.77720445</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-26097673.30830445</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-26191056.05650445</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-27001478.98580445</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-26403033.10690445</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-26723945.39010445</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-26797988.42360445</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-26761911.51710445</v>
       </c>
       <c r="H336">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-26761911.51710445</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-27332868.53400445</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-27770283.77450445</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-27848676.56060445</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-27139312.86640444</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-27799598.77840444</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-27385630.20550444</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-27012517.34480444</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-27012517.34480444</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-26599247.77470445</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-26700529.87340445</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-26184063.08470445</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-26170687.71640445</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-25369754.85390445</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-25369754.85390445</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-25369646.60140445</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-25369646.60140445</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-26095354.64400445</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-26095354.64400445</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-26552382.34170445</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-26128007.20190445</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-26592726.12800445</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-26983389.67750445</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-26240630.20510445</v>
       </c>
       <c r="H360">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-26312929.69820445</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-26883963.67040445</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-26884073.05570444</v>
       </c>
       <c r="H363">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-27614495.21420445</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-26802873.84030445</v>
       </c>
       <c r="H365">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-27104836.69430444</v>
       </c>
       <c r="H366">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-26251004.64010444</v>
       </c>
       <c r="H367">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-26650546.83630444</v>
       </c>
       <c r="H368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-26665116.06570444</v>
       </c>
       <c r="H369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-27501796.97790444</v>
       </c>
       <c r="H370">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-27661919.19480444</v>
       </c>
       <c r="H371">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-27253036.08750444</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-26739851.34920444</v>
       </c>
       <c r="H373">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-27502418.59550444</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-28308190.63690444</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-27551085.08250444</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-28059477.09730444</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-28059698.46450444</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-27391487.53130444</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-26638785.08480444</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-26638785.08480444</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-27216223.21440444</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-27374540.26630444</v>
       </c>
       <c r="H383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-26776718.05580444</v>
       </c>
       <c r="H384">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-26776278.72080444</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-26776278.72080444</v>
       </c>
       <c r="H386">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-26776278.72080444</v>
       </c>
       <c r="H387">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-26776278.72080444</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-26427001.11540444</v>
       </c>
       <c r="H389">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-26670681.84120444</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-26229021.86250444</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-26244139.28620444</v>
       </c>
       <c r="H392">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-26244139.28620444</v>
       </c>
       <c r="H393">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-26864953.95030444</v>
       </c>
       <c r="H394">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-26864953.95030444</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-27399996.89160444</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-27673380.08720444</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-26997070.73680444</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-26593022.53120444</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-26592872.39500444</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-25821107.87930444</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-25772524.44530443</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-26558045.09200443</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-27402368.93240443</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-27402368.93240443</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-26581536.35810443</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-27316751.37830443</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-27874336.05690443</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-27369598.97630443</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-26548047.64600443</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-26548047.64600443</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-25790374.35240443</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-24728645.20930443</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-24718645.20930443</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-25106445.77680443</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-25076445.77680443</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-25076445.77680443</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-25076445.77680443</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-24631855.49790443</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-24630433.42270443</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-24629850.26400443</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-25397392.80740443</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-25388170.58510443</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-26019543.85710443</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-25589205.15410443</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-25463579.29550442</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-24680689.91680443</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-24293173.85290442</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-24293173.85290442</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-23989380.73850442</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-23871879.53800442</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-23029043.96300443</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-22939043.96300443</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-22973632.50260442</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-22636817.67750442</v>
       </c>
       <c r="H435">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-22632829.31530442</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-24342123.87000442</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-24341817.50370442</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-24457758.28340442</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-24306619.54610442</v>
       </c>
       <c r="H455">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-24306619.54610442</v>
       </c>
       <c r="H457">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-23542825.79440442</v>
       </c>
       <c r="H458">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-23479087.58439557</v>
       </c>
       <c r="H459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-23479087.58439557</v>
       </c>
       <c r="H460">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-23932424.75909556</v>
       </c>
       <c r="H461">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-23934424.75909556</v>
       </c>
       <c r="H462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-23171565.63789557</v>
       </c>
       <c r="H463">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-23620020.85109556</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-24311025.09299557</v>
       </c>
       <c r="H466">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-24363362.99629556</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-25060552.89079556</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-25059998.30179556</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-25030745.94939556</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-24604869.43669556</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-24614137.76469556</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-23895391.09569556</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-24016194.75089556</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-23487255.33939556</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-23891268.57179556</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-23276676.61609557</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-22812488.86719557</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-22823158.39529556</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-22173577.42909556</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-22807106.90009556</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-22807106.90009556</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-22806091.54849556</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-22447935.18449556</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-22936062.80259557</v>
       </c>
       <c r="H493">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-22936818.04479557</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-23760956.94659557</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-23535372.17949557</v>
       </c>
       <c r="H497">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-23501750.78219557</v>
       </c>
       <c r="H498">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-22764162.06449557</v>
       </c>
       <c r="H499">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-23670608.44689557</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-23670608.44689557</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-24472056.81429557</v>
       </c>
       <c r="H504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-24473133.49209557</v>
       </c>
       <c r="H506">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-23665128.84489557</v>
       </c>
       <c r="H507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-24905220.28249557</v>
       </c>
       <c r="H510">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-24911677.66559557</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-24126558.71839557</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-24943125.28839557</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-24501871.93669557</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-24150088.46329557</v>
       </c>
       <c r="H515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-23859674.21699557</v>
       </c>
       <c r="H516">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-25415809.23399557</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-24325953.66389557</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-24857810.83399557</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-24860424.31809557</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-25195412.93919557</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-26485813.67139557</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-26066739.90129557</v>
       </c>
       <c r="H526">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-26066739.90129557</v>
       </c>
       <c r="H527">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-26073637.14739557</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-25721414.69659557</v>
       </c>
       <c r="H529">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-25721414.69659557</v>
       </c>
       <c r="H530">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-25364477.23279557</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-24722002.81369556</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-23036521.90819556</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-22878145.89919556</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-22878145.89919556</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-22878145.89919556</v>
       </c>
       <c r="H538">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-24370520.95169556</v>
       </c>
       <c r="H540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-23706252.58179556</v>
       </c>
       <c r="H541">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-23705133.34439556</v>
       </c>
       <c r="H542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-23705267.99049556</v>
       </c>
       <c r="H543">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-23287888.36109556</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-23455777.27289556</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-23683850.35969556</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-23647882.56129557</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-23645859.14299557</v>
       </c>
       <c r="H550">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-22858213.36989557</v>
       </c>
       <c r="H551">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-22096841.13349557</v>
       </c>
       <c r="H552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-21237517.58619557</v>
       </c>
       <c r="H553">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-21237166.14759557</v>
       </c>
       <c r="H554">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-20942457.10419556</v>
       </c>
       <c r="H555">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-20942457.10419556</v>
       </c>
       <c r="H556">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-21446348.93929556</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-21917950.35349556</v>
       </c>
       <c r="H559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-21258671.68999556</v>
       </c>
       <c r="H560">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-21256934.05889557</v>
       </c>
       <c r="H561">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-22001478.58509557</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-22001478.58509557</v>
       </c>
       <c r="H563">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-22001478.58509557</v>
       </c>
       <c r="H564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-21649828.96139557</v>
       </c>
       <c r="H565">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-22381307.60579557</v>
       </c>
       <c r="H566">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-21608555.55569557</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-21608298.55569557</v>
       </c>
       <c r="H568">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-21608298.55569557</v>
       </c>
       <c r="H569">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-21607663.55569557</v>
       </c>
       <c r="H570">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-21616844.84249557</v>
       </c>
       <c r="H571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-22257403.79359557</v>
       </c>
       <c r="H572">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-20953595.45889557</v>
       </c>
       <c r="H573">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-20953595.45889557</v>
       </c>
       <c r="H574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-20953595.45889557</v>
       </c>
       <c r="H575">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-20163144.78869557</v>
       </c>
       <c r="H576">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-20163144.78869557</v>
       </c>
       <c r="H577">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-20174042.84839557</v>
       </c>
       <c r="H578">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-19485830.57229557</v>
       </c>
       <c r="H579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-19485830.57229557</v>
       </c>
       <c r="H580">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-18692431.07929557</v>
       </c>
       <c r="H581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-17974470.83829557</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-17466953.18559557</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-16677579.58209557</v>
       </c>
       <c r="H584">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-16677469.56959557</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-17027991.09719557</v>
       </c>
       <c r="H586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-17027991.09719557</v>
       </c>
       <c r="H587">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-17027881.88209557</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-18393793.29739557</v>
       </c>
       <c r="H592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-18394367.23649557</v>
       </c>
       <c r="H593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-18394367.23649557</v>
       </c>
       <c r="H594">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-18753819.70419557</v>
       </c>
       <c r="H595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-19110793.21869557</v>
       </c>
       <c r="H596">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-19363152.64809557</v>
       </c>
       <c r="H597">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-19755322.59959557</v>
       </c>
       <c r="H598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-20656842.83049557</v>
       </c>
       <c r="H599">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-21089042.15339557</v>
       </c>
       <c r="H600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-21509118.63389557</v>
       </c>
       <c r="H601">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-22158145.47169557</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-22158145.47169557</v>
       </c>
       <c r="H603">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-22158145.47169557</v>
       </c>
       <c r="H604">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-22584738.38379557</v>
       </c>
       <c r="H605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-22090667.50439557</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-22090667.50439557</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-22090667.50439557</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-21522512.82789557</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-21522512.82789557</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-20226906.45069557</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-20572822.57679557</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-20572822.57679557</v>
       </c>
       <c r="H613">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-20220238.91859557</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-19423839.52709557</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-20003158.17569557</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-19220676.46859557</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-19944395.01879557</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-19944395.01879557</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-19627884.77389557</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-18820284.18159557</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-18822707.46609557</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-18360248.21119557</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-23911692.78999557</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-24236929.79119557</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-24175409.30459557</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-24175111.20759557</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-24175111.20759557</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-17612359.11544743</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-18684537.95564743</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-19145612.19264743</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-18687256.53554743</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-17377492.50964743</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-17377492.50964743</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-18052498.03754743</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-17840614.18444743</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-18353912.55344743</v>
       </c>
       <c r="H732">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-18353912.55344743</v>
       </c>
       <c r="H733">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-17858847.86474742</v>
       </c>
       <c r="H734">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-17919976.45684742</v>
       </c>
       <c r="H735">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-17919273.61454742</v>
       </c>
       <c r="H736">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-17161125.47488296</v>
       </c>
       <c r="H737">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-17161125.47488296</v>
       </c>
       <c r="H738">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-17567140.73621851</v>
       </c>
       <c r="H739">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-16846341.39051851</v>
       </c>
       <c r="H740">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-16847513.90300296</v>
       </c>
       <c r="H741">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-16079644.71520296</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-17275953.67440296</v>
       </c>
       <c r="H743">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-17275953.67440296</v>
       </c>
       <c r="H744">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-17288263.92690296</v>
       </c>
       <c r="H745">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-16561816.01840296</v>
       </c>
       <c r="H746">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-16601816.01840296</v>
       </c>
       <c r="H747">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-16601816.01840296</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-16606635.98670296</v>
       </c>
       <c r="H749">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-16543934.75140296</v>
       </c>
       <c r="H750">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-16089718.63890296</v>
       </c>
       <c r="H751">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-16402123.00520296</v>
       </c>
       <c r="H752">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-16402123.00520296</v>
       </c>
       <c r="H753">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-15125171.99078741</v>
       </c>
       <c r="H755">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-15125171.99078741</v>
       </c>
       <c r="H756">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-13450979.79647185</v>
       </c>
       <c r="H757">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-13450979.79647185</v>
       </c>
       <c r="H758">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 XSR ohlcv.xlsx
@@ -2030,7 +2030,7 @@
         <v>-17518504.35506696</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-16998117.84236696</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-16976829.36826696</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-17574721.42346696</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-18168253.26646696</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-18163253.26646696</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-18163133.26646696</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-19013216.20056695</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-19647408.41966695</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-19998958.43966695</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-20668563.15216695</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-20881545.57456695</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-20507472.75006695</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-20509478.79316695</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-21090048.27586695</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-21578106.23846695</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-28870548.93350445</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-30589809.25990446</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-30573078.91730446</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-30686126.33780446</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-31036242.67620445</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-30491559.56460445</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-31420321.35970445</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-31420321.35970445</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-31002525.37190446</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-31819645.15170446</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-31818645.15170446</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-32687656.65220446</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-31711469.62110446</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-31711469.62110446</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-31220935.43660446</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-31145492.29870446</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-31145492.29870446</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-31145492.29870446</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-31135492.29870446</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-31784127.89770446</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-32420499.47660445</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-31508841.23360445</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-31518401.51730445</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-30666418.20940445</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-29909173.95020445</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-29908954.84340445</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-30740514.21520445</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-31246814.28610445</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-30852329.45770445</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-31440500.09310445</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-31091342.67450445</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-30694220.52120445</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-30694220.52120445</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-30694109.79610445</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-31312359.27820445</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-30556347.92000445</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-30266812.52290445</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-30266573.39690445</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-31261608.73000445</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-30954889.34710445</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-30954889.34710445</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-31321273.73060445</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-31003041.46570445</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-31135044.82730445</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-31595919.32770445</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-32205360.30010445</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-31623038.90170445</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-31214426.14470445</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-31269492.54890445</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-31290277.16980445</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-30722900.38710445</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-30704149.84770445</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-30723895.23760445</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-30049018.87870445</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-29540502.74200445</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-29466654.97810445</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-28904064.45260445</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-28685860.08660445</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-28685860.08660445</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-28685860.08660445</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-28685550.08660445</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-28684441.46150445</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-29199121.97530445</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-28775637.25830445</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-28481389.01970445</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-28267243.40350445</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-28267243.40350445</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-28267243.40350445</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-27887347.67970445</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-26845655.77720445</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-26097673.30830445</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-26191056.05650445</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-27001478.98580445</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-26403033.10690445</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-26723945.39010445</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-26797988.42360445</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-26761911.51710445</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-26761911.51710445</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-27332868.53400445</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-27770283.77450445</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-27848676.56060445</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-27139312.86640444</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-27799598.77840444</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-27385630.20550444</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-27012517.34480444</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-27012517.34480444</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-26599247.77470445</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-26700529.87340445</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-26184063.08470445</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-26170687.71640445</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-25369754.85390445</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-25369754.85390445</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-25369646.60140445</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-25369646.60140445</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-26095354.64400445</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-26095354.64400445</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-26552382.34170445</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-26128007.20190445</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-26592726.12800445</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-26983389.67750445</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-26240630.20510445</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-26312929.69820445</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-26883963.67040445</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-26884073.05570444</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-27614495.21420445</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-27104836.69430444</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-26251004.64010444</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-26650546.83630444</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-26665116.06570444</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-27501796.97790444</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-27253036.08750444</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-27502418.59550444</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-27551085.08250444</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-28059698.46450444</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-26776278.72080444</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-26864953.95030444</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-26864953.95030444</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-27399996.89160444</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-27673380.08720444</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-26997070.73680444</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-26593022.53120444</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-26592872.39500444</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-26548047.64600443</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-24680689.91680443</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-23911692.78999557</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-24236929.79119557</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-24175409.30459557</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-24175111.20759557</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-24175111.20759557</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-16404746.7142715</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-16423848.47924743</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-17042105.67014743</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-17116922.63074743</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-17612359.11544743</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-17612255.59024743</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-18422049.55014743</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-18684537.95564743</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-19145612.19264743</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-18141273.57294744</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-18157331.14084743</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-18687256.53554743</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-18611930.04604743</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-17879206.20604743</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-17377492.50964743</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-17377492.50964743</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-18052498.03754743</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-17840614.18444743</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-18353912.55344743</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-18353912.55344743</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-17858847.86474742</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-17919976.45684742</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-17919273.61454742</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-17161125.47488296</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-17161125.47488296</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-17567140.73621851</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-16846341.39051851</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-16847513.90300296</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-16079644.71520296</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-17275953.67440296</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-17275953.67440296</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-17288263.92690296</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-16561816.01840296</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-16601816.01840296</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-16606635.98670296</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-16089718.63890296</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-16402123.00520296</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-16402123.00520296</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-16256768.56940296</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-15125171.99078741</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-15125171.99078741</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-13450979.79647185</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-13450979.79647185</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
